--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 13,2</t>
+          <t>-0,49; 14,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 8,85</t>
+          <t>-4,8; 9,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 17,92</t>
+          <t>-0,52; 19,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 14,3</t>
+          <t>-6,44; 14,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,5</t>
+          <t>-2,48; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 32,22</t>
+          <t>-7,05; 32,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,57</t>
+          <t>-2,98; 5,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 91,95</t>
+          <t>-10,72; 99,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 14,76</t>
+          <t>4,89; 15,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 8,51</t>
+          <t>-5,25; 7,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 19,94</t>
+          <t>6,14; 21,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 15,39</t>
+          <t>-8,55; 13,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,67</t>
+          <t>1,42; 6,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 24,79</t>
+          <t>-3,25; 26,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,45</t>
+          <t>1,73; 8,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 58,56</t>
+          <t>-5,05; 67,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>6,38</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8,06%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,47; 9,17</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 8,72</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,49; 14,2</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 9,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 8,72</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-4,75; 14,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 13,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-0,52; 19,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 14,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 13,69</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,97; 3,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 3,37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,48; 4,46</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 32,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 3,37</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-6,91; 4,99</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 5,21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-2,98; 5,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,72; 99,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 5,21</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-6,35</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>10,34</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>13,42%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,71; 5,33</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; -0,3</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>4,89; 15,71</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 7,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; -0,3</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-10,73; 9,27</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-17,32; -0,68</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>6,14; 21,84</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,55; 13,8</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; -0,68</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,13</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,09%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,82; 3,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 1,47</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,42; 6,71</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 26,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 1,47</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-4,1; 5,03</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 2,3</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,73; 8,47</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 67,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 2,3</t>
         </is>
       </c>
     </row>
